--- a/library/data/readers.xlsx
+++ b/library/data/readers.xlsx
@@ -527,10 +527,8 @@
           <t>Riv</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>172411527</t>
-        </is>
+      <c r="D3" t="n">
+        <v>172411527</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>

--- a/library/data/readers.xlsx
+++ b/library/data/readers.xlsx
@@ -489,8 +489,10 @@
           <t>Skellen</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>252779118</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>252779118</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
